--- a/src/Abp.EmailMarketing.Web/wwwroot/File/ContactDto.xlsx
+++ b/src/Abp.EmailMarketing.Web/wwwroot/File/ContactDto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C708AEAF-60A7-4FE3-B640-302CCA5C7BA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38921DA4-C201-4290-9963-1ECCF259535A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Group Contact</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
@@ -48,37 +45,28 @@
     <t>Addition</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>0511123123</t>
+  </si>
+  <si>
+    <t>0905901869</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>abcde@gmail.com</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>xyze</t>
+  </si>
+  <si>
+    <t>Group(must same)</t>
   </si>
   <si>
     <t>Group01</t>
-  </si>
-  <si>
-    <t>thinhpvpde130111@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>Thinh</t>
-  </si>
-  <si>
-    <t>Pham</t>
-  </si>
-  <si>
-    <t>Group03</t>
-  </si>
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>0511123123</t>
-  </si>
-  <si>
-    <t>0905901869</t>
   </si>
 </sst>
 </file>
@@ -409,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +415,7 @@
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,61 +435,55 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+      <c r="C2">
+        <v>4321</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36301</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>35681</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>36301</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2">
-        <v>35681</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F6229182-18A9-44D1-A0D3-DA83F27C0115}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{1056B657-C0C0-4D37-86C6-4EB49D27C796}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F6229182-18A9-44D1-A0D3-DA83F27C0115}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{1056B657-C0C0-4D37-86C6-4EB49D27C796}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F3" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>